--- a/TestCases/Back End/CreateAssessment-BackEnd-ServiceManager.xlsx
+++ b/TestCases/Back End/CreateAssessment-BackEnd-ServiceManager.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{C4752288-1FFB-4E83-9E5F-4F7975B6A37C}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{D024CBF3-B622-40E7-8894-04E62C3F604E}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{C4752288-1FFB-4E83-9E5F-4F7975B6A37C}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{D024CBF3-B622-40E7-8894-04E62C3F604E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestCases/Back End/CreateAssessment-BackEnd-ServiceManager.xlsx
+++ b/TestCases/Back End/CreateAssessment-BackEnd-ServiceManager.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{C4752288-1FFB-4E83-9E5F-4F7975B6A37C}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{D024CBF3-B622-40E7-8894-04E62C3F604E}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{C4752288-1FFB-4E83-9E5F-4F7975B6A37C}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{3C71CCB4-D8A1-422C-BF54-390EE2A3BE55}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Role: Service Manager</t>
   </si>
   <si>
-    <t>Test Case: Testing to see if creating an assessment adds it to the database</t>
+    <t>Test Case: Testing to see if creating assessments reaches data base with no errors</t>
   </si>
   <si>
     <t>Steps</t>
@@ -35,16 +35,37 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>Step 1: While logged out, try to create an assessment</t>
-  </si>
-  <si>
-    <t>I am redirected to the login screen</t>
-  </si>
-  <si>
-    <t>Step 2: Log in and from the dashboard go to "Create Assessment" and create an assessment for an employee</t>
-  </si>
-  <si>
-    <t>The assessment is added to the database</t>
+    <t>Step 1: While logged out go to the "create assessment" page</t>
+  </si>
+  <si>
+    <t>I am returned to the login page</t>
+  </si>
+  <si>
+    <t>Step 2: Login as a user with the appropriate role and go to the create assessment page</t>
+  </si>
+  <si>
+    <t>I am redirected to the create assessment page</t>
+  </si>
+  <si>
+    <t>Step 3: Fill out an assessment for an employee on any of your teams</t>
+  </si>
+  <si>
+    <t>A new assessment will be added to the database for that employee</t>
+  </si>
+  <si>
+    <t>Step 4: Fill out a assessment for an employee that is not in any of your teams</t>
+  </si>
+  <si>
+    <t>I am denied access to this</t>
+  </si>
+  <si>
+    <t>Step 5: Leave Certain fields that are required blank</t>
+  </si>
+  <si>
+    <t>An error text shows saying that some of the fields have been left blank</t>
+  </si>
+  <si>
+    <t>Step 6: Create an assessment for the current user logged in</t>
   </si>
 </sst>
 </file>
@@ -395,7 +416,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,10 +466,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="56.25" customHeight="1"/>
-    <row r="5" spans="1:6" ht="58.5" customHeight="1"/>
-    <row r="6" spans="1:6" ht="60.75" customHeight="1"/>
+    <row r="4" spans="1:6" ht="56.25" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58.5" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60.75" customHeight="1">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
   </sheetData>
